--- a/public/assets/template/template-excel.xlsx
+++ b/public/assets/template/template-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1. Khadziq\TA\SIAZGA\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BC59A9-4CE0-4595-BB59-3A4F68AAE5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FF87BC-64FA-409B-9265-E84269D4C6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,7 +132,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,28 +145,19 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -189,35 +180,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -523,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,189 +560,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>1234567</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <v>899999</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="7">
         <v>1234567</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>7654321</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <v>888888</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="7">
         <v>7654321</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>3214567</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="7">
         <v>877777</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="7">
         <v>3214567</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>1234567</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <v>866666</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="7">
         <v>1234567</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/public/assets/template/template-excel.xlsx
+++ b/public/assets/template/template-excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1. Khadziq\TA\SIAZGA\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FF87BC-64FA-409B-9265-E84269D4C6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358E04CE-CDB4-4A7B-977F-DB81BEB0FFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,10 +85,10 @@
     <t>Data guru</t>
   </si>
   <si>
-    <t>khadziq@gmail.com</t>
-  </si>
-  <si>
     <t>ujang</t>
+  </si>
+  <si>
+    <t>ujang@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -213,15 +213,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -236,7 +230,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -545,7 +544,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,32 +559,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -605,118 +604,118 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
+        <v>12345678910</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>899999</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5">
         <v>1234567</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="7">
-        <v>899999</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1234567</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>7654321</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>888888</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>7654321</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>3214567</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>877777</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>3214567</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5">
+        <v>123456</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5">
+        <v>866667</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7">
-        <v>1234567</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="7">
-        <v>866666</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1234567</v>
-      </c>
-      <c r="I6" s="10" t="s">
+      <c r="H6" s="5">
+        <v>123456</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>18</v>
       </c>
     </row>
